--- a/data/trans_dic/P23_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Edad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3714607571977757</v>
+        <v>0.3753221712687476</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3201326402524673</v>
+        <v>0.324613571553553</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3015336254046824</v>
+        <v>0.2979148443043298</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3188583353017296</v>
+        <v>0.3207555788990931</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3022912253778144</v>
+        <v>0.3004413667977983</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2245961714302667</v>
+        <v>0.2280191197047726</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3589570421760668</v>
+        <v>0.3595645658574704</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3264909029599902</v>
+        <v>0.3245958167575435</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2772175654276987</v>
+        <v>0.2733629790240663</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4617488461177127</v>
+        <v>0.4637313278735237</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4120061161049807</v>
+        <v>0.4127080610167939</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.394814450199067</v>
+        <v>0.3973747772170497</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4032202251043</v>
+        <v>0.4027145581909866</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3900378295847942</v>
+        <v>0.3974269158144556</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.313417121353135</v>
+        <v>0.3105552711677053</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4214070526494009</v>
+        <v>0.4224860272594604</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3910022807541855</v>
+        <v>0.3860023096988347</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3421405367103355</v>
+        <v>0.3431154249723267</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5059339920535414</v>
+        <v>0.5050194858058319</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4684841882804015</v>
+        <v>0.4730604713298242</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4163618239706458</v>
+        <v>0.4104686880072012</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.333963017514439</v>
+        <v>0.3366798853529754</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3665550070528408</v>
+        <v>0.3640123589655853</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3418778765312578</v>
+        <v>0.3438954829448763</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4382580665444182</v>
+        <v>0.4397699954069373</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4325510240757001</v>
+        <v>0.4357898833976012</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.389969694221912</v>
+        <v>0.3888048042605752</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5823153472107104</v>
+        <v>0.578305443942589</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5441394316742049</v>
+        <v>0.5509104391488331</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5048621557788316</v>
+        <v>0.4975847038107917</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4130540273728518</v>
+        <v>0.4144879617761141</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4473476011567349</v>
+        <v>0.4469606749481951</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.42231934488408</v>
+        <v>0.4228425164534448</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4897940036219676</v>
+        <v>0.4922239641985875</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4879202432777621</v>
+        <v>0.4912142795902703</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4501819675896017</v>
+        <v>0.4463809824253459</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.493778156875008</v>
+        <v>0.4956596680186999</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4384101310356748</v>
+        <v>0.4399310629201077</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3617654689579791</v>
+        <v>0.3612332689670495</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3375985193578194</v>
+        <v>0.3385497272099887</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3108102415182777</v>
+        <v>0.3120736786115492</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2976843842844498</v>
+        <v>0.3021809335445248</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4244578748017544</v>
+        <v>0.423377371794607</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3835711586546099</v>
+        <v>0.3852614687536524</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3403633554694002</v>
+        <v>0.3412722214273796</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.576490910505884</v>
+        <v>0.5722251460540416</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5152730245692865</v>
+        <v>0.51768891241194</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4377272485135926</v>
+        <v>0.4407657780155516</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4131152977167913</v>
+        <v>0.4144402141165207</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3880890159903017</v>
+        <v>0.3852334041543772</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3723796577164915</v>
+        <v>0.3713214244282616</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4793034273744674</v>
+        <v>0.4783219248280507</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4387244494172665</v>
+        <v>0.4391375640040397</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3940979996829793</v>
+        <v>0.3916753982904724</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4076432154983303</v>
+        <v>0.4088344437357544</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4116814242001251</v>
+        <v>0.413832266113697</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3906066803548922</v>
+        <v>0.3908393897911941</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2434846685680708</v>
+        <v>0.2450961526644476</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.345363131440371</v>
+        <v>0.3504712378578716</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3192257650000268</v>
+        <v>0.3201017051305837</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3371139496672527</v>
+        <v>0.337366507336279</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3922254418706106</v>
+        <v>0.386916508662268</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3650876948877068</v>
+        <v>0.3652085419931137</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4984183207397486</v>
+        <v>0.4969548361433258</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4934984737636794</v>
+        <v>0.4987735661919009</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4753060125468226</v>
+        <v>0.4716628990548051</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.320175050738471</v>
+        <v>0.3215009521617848</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4305299190103172</v>
+        <v>0.432623142734376</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3992950695335936</v>
+        <v>0.3951312691957163</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3969672062077522</v>
+        <v>0.4003984922046496</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4532938409444429</v>
+        <v>0.4506255412398997</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4204031089668305</v>
+        <v>0.4215612481851761</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2873155678714827</v>
+        <v>0.28418606528736</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3154737514133821</v>
+        <v>0.3172959651736128</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2658408175876059</v>
+        <v>0.2609505881001148</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08811681693704651</v>
+        <v>0.08803685436946247</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1187622033326856</v>
+        <v>0.1190609047425338</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1932650249942492</v>
+        <v>0.1932869916465923</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1941056697156684</v>
+        <v>0.1942691953852876</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2251093756637814</v>
+        <v>0.2253555779041977</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2380681211048016</v>
+        <v>0.2367125885262868</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3842242472927899</v>
+        <v>0.378622334904241</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4171336380688994</v>
+        <v>0.4125778094555264</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3524269872639174</v>
+        <v>0.355844388328128</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1534869213693251</v>
+        <v>0.1517493937909991</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1885875004664952</v>
+        <v>0.1905017442507942</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2749902618076372</v>
+        <v>0.2737190158316259</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2526333572507206</v>
+        <v>0.2509239264118446</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2866466295180562</v>
+        <v>0.2891683242246608</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2989868450033152</v>
+        <v>0.2973887360940768</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1429016649683248</v>
+        <v>0.1416762043084295</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1254665239338129</v>
+        <v>0.1244115613545905</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1354294482394501</v>
+        <v>0.1322135683388226</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.008226978261865019</v>
+        <v>0.008220091606903174</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03239307897037795</v>
+        <v>0.03207999382133678</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.0525032064539378</v>
+        <v>0.05511237481119341</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.07177916338659864</v>
+        <v>0.07473758949398197</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.08426000334113505</v>
+        <v>0.08435661430810323</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.09977244008371768</v>
+        <v>0.1016137908973508</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2335835356786526</v>
+        <v>0.22511289404354</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.214846028158904</v>
+        <v>0.2145981409350713</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2227403578392493</v>
+        <v>0.2168187409524639</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03921865690684395</v>
+        <v>0.03830491977775817</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.08264552504366134</v>
+        <v>0.08644471539183507</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1088906304326942</v>
+        <v>0.1097977243392328</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1156294495272009</v>
+        <v>0.1202928718040139</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.136412383460866</v>
+        <v>0.1344549727726227</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1542455892223623</v>
+        <v>0.1546018971738073</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0701719146048185</v>
+        <v>0.06945657970637879</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07273543183162735</v>
+        <v>0.07315387930884001</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.06737890027626076</v>
+        <v>0.0676216775226996</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.003344801964975238</v>
+        <v>0.003380638869394978</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.002587251847225311</v>
+        <v>0.002587159501108674</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.006981452614287753</v>
+        <v>0.006829916129236302</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03304393690889092</v>
+        <v>0.03445992500413456</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.03195474004908806</v>
+        <v>0.03216190997665301</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03566248096009179</v>
+        <v>0.03532935495495962</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1541707410909642</v>
+        <v>0.1522583039857056</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1583558018006143</v>
+        <v>0.154519201359458</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1359844925486793</v>
+        <v>0.1333913772290288</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03538406402978991</v>
+        <v>0.03357507293198449</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03006945884964777</v>
+        <v>0.03060794035435366</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04107199059110073</v>
+        <v>0.04301202270955962</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.07171963361184149</v>
+        <v>0.07302788837209397</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.07025213275813293</v>
+        <v>0.07121986872580646</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.06815720413617349</v>
+        <v>0.06865238550928815</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.4045878954716592</v>
+        <v>0.4060834222805361</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3787028203037276</v>
+        <v>0.3790909986768302</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3338943618818603</v>
+        <v>0.3335521400303301</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2404247837439934</v>
+        <v>0.2401481971050369</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2592265882613503</v>
+        <v>0.2593548981087217</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2463114498739905</v>
+        <v>0.2455825342713981</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.3259054693271328</v>
+        <v>0.3269168435941037</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.322865883583975</v>
+        <v>0.322654753155259</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2927199913113854</v>
+        <v>0.294242305251616</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.440038013342917</v>
+        <v>0.4391859405449984</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.413933929762612</v>
+        <v>0.4144648272170601</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3672363941641641</v>
+        <v>0.3672893609873641</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.269910911952388</v>
+        <v>0.2716658587610183</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2911553132794867</v>
+        <v>0.2905662617000394</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.276433537667205</v>
+        <v>0.2774233471219599</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3507953464992103</v>
+        <v>0.3500966841717661</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3462686481416593</v>
+        <v>0.3467405516425792</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3162793045443187</v>
+        <v>0.3168432232446354</v>
       </c>
     </row>
     <row r="28">
@@ -1729,31 +1729,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>183138</v>
+        <v>185042</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>145387</v>
+        <v>147422</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>126482</v>
+        <v>124964</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>149063</v>
+        <v>149950</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>129754</v>
+        <v>128960</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>88885</v>
+        <v>90240</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>344782</v>
+        <v>345366</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>288416</v>
+        <v>286741</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>225993</v>
+        <v>222850</v>
       </c>
     </row>
     <row r="7">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>227652</v>
+        <v>228630</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>187111</v>
+        <v>187430</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>165610</v>
+        <v>166684</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>188501</v>
+        <v>188265</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>167417</v>
+        <v>170589</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>124036</v>
+        <v>122904</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>404766</v>
+        <v>405802</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>345404</v>
+        <v>340987</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>278919</v>
+        <v>279714</v>
       </c>
     </row>
     <row r="8">
@@ -1873,31 +1873,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>372109</v>
+        <v>371436</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>321889</v>
+        <v>325034</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>245860</v>
+        <v>242380</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>208892</v>
+        <v>210591</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>223692</v>
+        <v>222140</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>192663</v>
+        <v>193800</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>596461</v>
+        <v>598519</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>561167</v>
+        <v>565369</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>450041</v>
+        <v>448696</v>
       </c>
     </row>
     <row r="11">
@@ -1908,31 +1908,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>428287</v>
+        <v>425337</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>373871</v>
+        <v>378523</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>298119</v>
+        <v>293822</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>258363</v>
+        <v>259260</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>272996</v>
+        <v>272760</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>237996</v>
+        <v>238290</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>666601</v>
+        <v>669908</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>632999</v>
+        <v>637273</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>519528</v>
+        <v>515142</v>
       </c>
     </row>
     <row r="12">
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>315360</v>
+        <v>316562</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>298484</v>
+        <v>299520</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>241668</v>
+        <v>241313</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>232857</v>
+        <v>233513</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>220633</v>
+        <v>221530</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>196608</v>
+        <v>199578</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>563855</v>
+        <v>562420</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>533431</v>
+        <v>535782</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>452167</v>
+        <v>453374</v>
       </c>
     </row>
     <row r="15">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>368186</v>
+        <v>365462</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>350815</v>
+        <v>352460</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>292413</v>
+        <v>294443</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>284944</v>
+        <v>285858</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>275490</v>
+        <v>273463</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>245941</v>
+        <v>245243</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>636712</v>
+        <v>635409</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>610133</v>
+        <v>610707</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>523552</v>
+        <v>520334</v>
       </c>
     </row>
     <row r="16">
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>211627</v>
+        <v>212245</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>253026</v>
+        <v>254348</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>252351</v>
+        <v>252501</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>125551</v>
+        <v>126382</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>212812</v>
+        <v>215960</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>206527</v>
+        <v>207093</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>348842</v>
+        <v>349103</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>482757</v>
+        <v>476223</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>472062</v>
+        <v>472218</v>
       </c>
     </row>
     <row r="19">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>258752</v>
+        <v>257993</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>303313</v>
+        <v>306555</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>307070</v>
+        <v>304717</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>165096</v>
+        <v>165779</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>265292</v>
+        <v>266582</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>258328</v>
+        <v>255635</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>410777</v>
+        <v>414328</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>557921</v>
+        <v>554637</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>543585</v>
+        <v>545082</v>
       </c>
     </row>
     <row r="20">
@@ -2305,31 +2305,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>111108</v>
+        <v>109898</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>135474</v>
+        <v>136256</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>127050</v>
+        <v>124713</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>35598</v>
+        <v>35566</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>53182</v>
+        <v>53315</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>95809</v>
+        <v>95820</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>153479</v>
+        <v>153608</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>197472</v>
+        <v>197688</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>231797</v>
+        <v>230477</v>
       </c>
     </row>
     <row r="23">
@@ -2340,31 +2340,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>148583</v>
+        <v>146417</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>179129</v>
+        <v>177173</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>168431</v>
+        <v>170064</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>62007</v>
+        <v>61305</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>84449</v>
+        <v>85307</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>136324</v>
+        <v>135693</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>199756</v>
+        <v>198405</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>251455</v>
+        <v>253667</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>291111</v>
+        <v>289555</v>
       </c>
     </row>
     <row r="24">
@@ -2449,31 +2449,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>41811</v>
+        <v>41452</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>38868</v>
+        <v>38541</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>45278</v>
+        <v>44203</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2821</v>
+        <v>2819</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>11467</v>
+        <v>11356</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>19834</v>
+        <v>20819</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>45617</v>
+        <v>47497</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>55930</v>
+        <v>55994</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>71047</v>
+        <v>72358</v>
       </c>
     </row>
     <row r="27">
@@ -2484,31 +2484,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>68343</v>
+        <v>65864</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>66556</v>
+        <v>66479</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>74469</v>
+        <v>72489</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>13449</v>
+        <v>13136</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>29256</v>
+        <v>30601</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>41135</v>
+        <v>41477</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>73484</v>
+        <v>76448</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>90548</v>
+        <v>89249</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>109837</v>
+        <v>110091</v>
       </c>
     </row>
     <row r="28">
@@ -2593,31 +2593,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>14728</v>
+        <v>14578</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>18173</v>
+        <v>18278</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>17258</v>
+        <v>17320</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1117</v>
+        <v>1129</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>1006</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2785</v>
+        <v>2724</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>17969</v>
+        <v>18739</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>20414</v>
+        <v>20546</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>23360</v>
+        <v>23141</v>
       </c>
     </row>
     <row r="31">
@@ -2628,31 +2628,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>32358</v>
+        <v>31956</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>39565</v>
+        <v>38607</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>34830</v>
+        <v>34166</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>11815</v>
+        <v>11211</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>11696</v>
+        <v>11906</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>16383</v>
+        <v>17157</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>39000</v>
+        <v>39712</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>44879</v>
+        <v>45497</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>44644</v>
+        <v>44968</v>
       </c>
     </row>
     <row r="32">
@@ -2737,31 +2737,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1325228</v>
+        <v>1330127</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1297341</v>
+        <v>1298671</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1132708</v>
+        <v>1131547</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>812443</v>
+        <v>811508</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>921895</v>
+        <v>922351</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>871722</v>
+        <v>869142</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>2168802</v>
+        <v>2175533</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>2254274</v>
+        <v>2252800</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>2028994</v>
+        <v>2039546</v>
       </c>
     </row>
     <row r="35">
@@ -2772,31 +2772,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1441345</v>
+        <v>1438554</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1418034</v>
+        <v>1419852</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1245818</v>
+        <v>1245998</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>912082</v>
+        <v>918012</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1035444</v>
+        <v>1033349</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>978327</v>
+        <v>981830</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>2334437</v>
+        <v>2329788</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>2417674</v>
+        <v>2420969</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>2192295</v>
+        <v>2196204</v>
       </c>
     </row>
     <row r="36">
